--- a/medicine/Psychotrope/Herzoglich_Bayerisches_Brauhaus_Tegernsee/Herzoglich_Bayerisches_Brauhaus_Tegernsee.xlsx
+++ b/medicine/Psychotrope/Herzoglich_Bayerisches_Brauhaus_Tegernsee/Herzoglich_Bayerisches_Brauhaus_Tegernsee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Herzoglich Bayerisches Brauhaus Tegernsee est une brasserie à Tegernsee. La brasserie se situe dans l'aile nord de l'ancienne abbaye et appartient à Maria Anna, la plus jeune fille de Max Emmanuel von Wittelsbach, le duc en Bavière[2].
+Herzoglich Bayerisches Brauhaus Tegernsee est une brasserie à Tegernsee. La brasserie se situe dans l'aile nord de l'ancienne abbaye et appartient à Maria Anna, la plus jeune fille de Max Emmanuel von Wittelsbach, le duc en Bavière.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entreprise se veut le successeur d'une brasserie soi-disant fondée vers 1050 sur le lac Tegern, où l'abbaye bénédictine de Tegernsee fut fondée en 746. La brasserie d'aujourd'hui remonte à l'année 1675, lorsque l'abbé Bernhard Wenzel accorde les droits de brassage nécessaires de Holzkirchen à Tegernsee.
 À cette époque, les moines de Bavière préfèrent presque invariablement le vin comme boisson. En fait, en 1604, le duc Maximilien fait une liste de toutes les brasseries de Bavière qui manquent à Tegernsee. Plus tard, en tant qu'électeur, Maximilien interdit par décret de construire d'autres brasseries autrement que celles existantes en Bavière. Si Tegernsee avait déjà une brasserie à ce moment-là, ou alors une licence de brassage manifestement ancienne, le transfert ultérieur des droits de brassage de Holzkirchen n'eût pas été nécessaire. On peut donc supposer qu'il n'existe pas de brasserie avant la première moitié du XVIIe siècle. Il existe plusieurs cas connus dans lesquels Maximilien dût reconnaître des brasseries dont le droit était antérieur, comme à Viechtach et Schwarzenberg.
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits sont la "Tegernseer Hell", l'export "Tegernseer Spezial", "Tegernseer Dunkel Export", "Tegernseer Pils", "Tegernseer Leicht" et "Quirinus Dunkler Doppelbock". En hiver, "Der blaue Page" est également disponible. À l'occasion du 200e anniversaire du couronnement du premier roi de Bavière, la bière "Max I. Joseph" fut brassée.
 </t>
